--- a/CI17.xlsx
+++ b/CI17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="chir" sheetId="2" r:id="rId5"/>
     <sheet name="mvas" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="top2" sheetId="9" r:id="rId8"/>
+    <sheet name="PPS" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
   <si>
     <t>Districts</t>
   </si>
@@ -529,6 +531,72 @@
   <si>
     <t>FY-17</t>
   </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>sideswipe</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Vehicle in Motion</t>
+  </si>
+  <si>
+    <t>Stationary Vehicle or Object</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +609,7 @@
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="168" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,8 +724,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,8 +754,14 @@
         <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -795,12 +875,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -907,6 +1039,18 @@
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4573,7 +4717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4781,4 +4925,379 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>14251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>14853</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4">
+        <v>8730</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>10662</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>11678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>10429</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3.49</v>
+      </c>
+      <c r="B4" s="41">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="41">
+        <v>4.22</v>
+      </c>
+      <c r="D4" s="41">
+        <v>3.53</v>
+      </c>
+      <c r="E4" s="41">
+        <v>3.68</v>
+      </c>
+      <c r="F4" s="41">
+        <v>2.75</v>
+      </c>
+      <c r="G4" s="41">
+        <v>3.37</v>
+      </c>
+      <c r="H4" s="41">
+        <v>2.98</v>
+      </c>
+      <c r="I4" s="41">
+        <v>2.81</v>
+      </c>
+      <c r="J4" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="41">
+        <v>3.38</v>
+      </c>
+      <c r="L4" s="41">
+        <v>3.02</v>
+      </c>
+      <c r="M4" s="41">
+        <v>2.73</v>
+      </c>
+      <c r="N4" s="41">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>3.52</v>
+      </c>
+      <c r="B5" s="42">
+        <v>3.24</v>
+      </c>
+      <c r="C5" s="42">
+        <v>4.22</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3.68</v>
+      </c>
+      <c r="F5" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="42">
+        <v>3.33</v>
+      </c>
+      <c r="H5" s="42">
+        <v>2.93</v>
+      </c>
+      <c r="I5" s="42">
+        <v>2.84</v>
+      </c>
+      <c r="J5" s="42">
+        <v>3.54</v>
+      </c>
+      <c r="K5" s="42">
+        <v>3.46</v>
+      </c>
+      <c r="L5" s="42">
+        <v>2.94</v>
+      </c>
+      <c r="M5" s="42">
+        <v>2.71</v>
+      </c>
+      <c r="N5" s="42">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>3.44</v>
+      </c>
+      <c r="B6" s="42">
+        <v>3.16</v>
+      </c>
+      <c r="C6" s="42">
+        <v>4.2</v>
+      </c>
+      <c r="D6" s="42">
+        <v>3.52</v>
+      </c>
+      <c r="E6" s="42">
+        <v>3.63</v>
+      </c>
+      <c r="F6" s="42">
+        <v>2.6</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3.29</v>
+      </c>
+      <c r="H6" s="42">
+        <v>2.86</v>
+      </c>
+      <c r="I6" s="42">
+        <v>2.71</v>
+      </c>
+      <c r="J6" s="42">
+        <v>3.42</v>
+      </c>
+      <c r="K6" s="42">
+        <v>3.4</v>
+      </c>
+      <c r="L6" s="42">
+        <v>2.84</v>
+      </c>
+      <c r="M6" s="42">
+        <v>2.62</v>
+      </c>
+      <c r="N6" s="42">
+        <v>2.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>